--- a/サンプルプロジェクトシューティング/game/data/csv/stage_2.xlsx
+++ b/サンプルプロジェクトシューティング/game/data/csv/stage_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamePG\Documents\GitHub\3d_sample\サンプルプロジェクトシューティング\game\data\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B72F4260-6C7A-44F1-9422-98616C94DE42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819B4B91-5DC0-4AC6-9F3A-55EB3480B9A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" xr2:uid="{223ACB22-F5E7-45A5-922A-3CC53FAB2940}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:R17" ca="1" si="0">IF(D2&lt;&gt;1,0,1)</f>
+        <f t="shared" ref="D2:R4" ca="1" si="0">IF(D2&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="E2" s="5">
@@ -677,8 +677,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -741,8 +740,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T3" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -848,65 +846,50 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="D5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
       </c>
       <c r="S5" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -933,49 +916,49 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="12">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -1002,49 +985,49 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="12">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -1071,49 +1054,62 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <f ca="1">IF(E8&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <f ca="1">IF(F8&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <f ca="1">IF(G8&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <f ca="1">IF(H8&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f ca="1">IF(I8&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <f ca="1">IF(J8&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <f ca="1">IF(K8&lt;&gt;1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
+        <f ca="1">IF(L8&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <f ca="1">IF(M8&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <f ca="1">IF(N8&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <f ca="1">IF(O8&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <f ca="1">IF(P8&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <f ca="1">IF(Q8&lt;&gt;1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -1139,65 +1135,61 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="D9" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="D9">
+        <v>2</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(E9&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(G9&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H9&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(I9&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(J9&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(K9&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(L9&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(M9&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(N9&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(O9&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" ref="R9:R11" ca="1" si="3">IF(R9&lt;&gt;1,0,1)</f>
-        <v>0</v>
+        <f ca="1">IF(Q9&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -1223,65 +1215,63 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="D10" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="D10">
+        <v>2</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(E10&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(F10&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(G10&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H10&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(I10&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(J10&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(K10&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(L10&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(M10&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(N10&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(O10&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(P10&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f ca="1">IF(Q10&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
       </c>
       <c r="S10" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -1307,65 +1297,62 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="D11" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="D11">
+        <v>2</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(E11&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(F11&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(G11&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H11&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(I11&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(J11&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(L11&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(M11&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(N11&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(O11&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(P11&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f ca="1">IF(Q11&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -1391,65 +1378,63 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="D12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="D12">
+        <v>2</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(E12&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(F12&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(G12&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(H12&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(I12&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(J12&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(K12&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(L12&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(M12&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(N12&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(O12&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(P12&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f ca="1">IF(Q12&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
       </c>
       <c r="S12" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -1475,65 +1460,61 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="D13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="D13">
+        <v>2</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(E13&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(G13&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(H13&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(I13&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(J13&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(K13&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(L13&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(M13&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(N13&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(O13&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f ca="1">IF(Q13&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -1559,65 +1540,63 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(E14&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(F14&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(G14&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(H14&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(I14&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(J14&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(K14&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(L14&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(M14&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(N14&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(O14&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(P14&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f ca="1">IF(Q14&lt;&gt;1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -1644,49 +1623,49 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -1713,49 +1692,49 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -1782,49 +1761,49 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -1907,15 +1886,15 @@
         <v>0</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" ref="D18:T20" ca="1" si="4">IF(R18&lt;&gt;1,0,1)</f>
+        <f t="shared" ref="D18:T20" ca="1" si="3">IF(R18&lt;&gt;1,0,1)</f>
         <v>0</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="U18" s="6">
@@ -1931,75 +1910,73 @@
         <v>0</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="U19" s="6">
@@ -2019,71 +1996,71 @@
         <v>0</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="U20" s="11">
